--- a/data/predictions/gender/gay_marr/leveled/strongdemocrat.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/strongdemocrat.xlsx
@@ -739,13 +739,13 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.2244400346535559</v>
+        <v>0.1180630793912455</v>
       </c>
       <c r="D34">
         <v>0.07523641247253385</v>
       </c>
       <c r="G34">
-        <v>0.05833390597641035</v>
+        <v>0.05477351682579737</v>
       </c>
       <c r="I34">
         <v>0.211586587627229</v>
@@ -759,13 +759,13 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.2244400346535559</v>
+        <v>0.04913953269074135</v>
       </c>
       <c r="D35">
         <v>0.06729942801038927</v>
       </c>
       <c r="G35">
-        <v>0.03650894599430832</v>
+        <v>0.09775460202638436</v>
       </c>
       <c r="I35">
         <v>0.2370994920489042</v>
@@ -779,13 +779,13 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.2244400346535559</v>
+        <v>0.02251958601179239</v>
       </c>
       <c r="D36">
         <v>0.04688561661701436</v>
       </c>
       <c r="G36">
-        <v>0.01811419621643989</v>
+        <v>-0.00361347711181062</v>
       </c>
       <c r="I36">
         <v>0.2246193318382027</v>
@@ -799,13 +799,13 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.2244400346535559</v>
+        <v>0.01322323279614381</v>
       </c>
       <c r="D37">
         <v>0.03424775022372993</v>
       </c>
       <c r="G37">
-        <v>-0.001194334618792973</v>
+        <v>0.001571467985056418</v>
       </c>
       <c r="I37">
         <v>0.2443795065392853</v>
@@ -819,13 +819,13 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.2244400346535559</v>
+        <v>-0.02170007845185772</v>
       </c>
       <c r="D38">
         <v>0.02335028768316454</v>
       </c>
       <c r="G38">
-        <v>-0.02025944135722632</v>
+        <v>0.01703773566550068</v>
       </c>
       <c r="I38">
         <v>0.236079950362997</v>
@@ -839,13 +839,13 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.2244400346535559</v>
+        <v>-0.0566226793234975</v>
       </c>
       <c r="D39">
         <v>0.0128423605071785</v>
       </c>
       <c r="G39">
-        <v>-0.03938939436318196</v>
+        <v>-0.006816875500928354</v>
       </c>
       <c r="I39">
         <v>0.2516743469318202</v>
